--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_0_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_0_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.625929269271486e-16</v>
+        <v>6.254777603522009e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.44935531550919</v>
+        <v>51.27483781071916</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.27771518934873, 57.620995441669656]</t>
+          <t>[42.18173779719306, 60.36793782424527]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.30192127986604</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.4906055233248852]</t>
+          <t>[1.6038160694001942, 1.9811845563178885]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.3964045431638</v>
+        <v>61.11993207957558</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.53375688267536, 65.25905220365225]</t>
+          <t>[55.73809853290837, 66.5017656262428]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.26378378378423</v>
+        <v>18.57543543543588</v>
       </c>
       <c r="X2" t="n">
-        <v>19.49621621621665</v>
+        <v>17.79495495495538</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.03135135135181</v>
+        <v>19.35591591591638</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>3.129185799366496e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.250955520704402e-15</v>
+        <v>1.147234159522744e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.51329916000836</v>
+        <v>46.18403522373059</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[41.40837580275846, 71.61822251725826]</t>
+          <t>[30.20484298903817, 62.16322745842301]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.141398087156631e-11</v>
+        <v>6.315741507556538e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.141398087156631e-11</v>
+        <v>6.315741507556538e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>2.748500479717197</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.4591846397469657, 3.0378163196874275]</t>
+          <t>[1.7421845146033492, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.20008865366496</v>
+        <v>65.00901643433575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.73091579341178, 70.66926151391813]</t>
+          <t>[56.25625669025756, 73.76177617841394]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.62100100100135</v>
+        <v>17.06858858858897</v>
       </c>
       <c r="X3" t="n">
-        <v>13.42426426426459</v>
+        <v>15.57765765765801</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.81773773773812</v>
+        <v>18.55951951951993</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_0_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_0_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>6.254777603522009e-16</v>
+        <v>6.00120553851436e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.27483781071916</v>
+        <v>45.49211901004432</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.18173779719306, 60.36793782424527]</t>
+          <t>[35.912347035969994, 55.071890984118646]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.792500312859041</v>
+        <v>1.415131825941348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 1.9811845563178885]</t>
+          <t>[1.1887107337907326, 1.6415529180919632]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.11993207957558</v>
+        <v>60.03743101639116</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.73809853290837, 66.5017656262428]</t>
+          <t>[54.35706651467537, 65.71779551810695]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.57543543543588</v>
+        <v>19.88072072072116</v>
       </c>
       <c r="X2" t="n">
-        <v>17.79495495495538</v>
+        <v>18.95603603603646</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.35591591591638</v>
+        <v>20.80540540540587</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.68000000000058</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.129185799366496e-11</v>
+        <v>2.375877272697835e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.147234159522744e-10</v>
+        <v>9.247289719511591e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.18403522373059</v>
+        <v>51.8823609248448</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.20484298903817, 62.16322745842301]</t>
+          <t>[35.77933932681783, 67.98538252287176]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.315741507556538e-08</v>
+        <v>2.507748009250577e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>6.315741507556538e-08</v>
+        <v>2.507748009250577e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>2.106974051957119</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.7421845146033492, 2.4717635893108882]</t>
+          <t>[0.3710790121357297, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.339061507499295e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.339061507499295e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>65.00901643433575</v>
+        <v>63.07692358257053</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.25625669025756, 73.76177617841394]</t>
+          <t>[54.75244027267751, 71.40140689246354]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.06858858858897</v>
+        <v>22.41711711711755</v>
       </c>
       <c r="X3" t="n">
-        <v>15.57765765765801</v>
+        <v>21.26366366366407</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.55951951951993</v>
+        <v>23.57057057057103</v>
       </c>
     </row>
   </sheetData>
